--- a/clonedprediction_history.xlsx
+++ b/clonedprediction_history.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -19,18 +19,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1930" uniqueCount="952">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2224" uniqueCount="1035">
   <si>
     <t>matchid</t>
   </si>
@@ -2886,16 +2880,272 @@
   </si>
   <si>
     <t>42.8%</t>
+  </si>
+  <si>
+    <t>Southampton-Brentford</t>
+  </si>
+  <si>
+    <t>37.8%</t>
+  </si>
+  <si>
+    <t>11/01/2022</t>
+  </si>
+  <si>
+    <t>Reading-Fulham</t>
+  </si>
+  <si>
+    <t>Fulham</t>
+  </si>
+  <si>
+    <t>8.7%</t>
+  </si>
+  <si>
+    <t>75.8%</t>
+  </si>
+  <si>
+    <t>19.2%</t>
+  </si>
+  <si>
+    <t>Milton Keynes Dons-AFC Wimbledon</t>
+  </si>
+  <si>
+    <t>48.9%</t>
+  </si>
+  <si>
+    <t>43.1%</t>
+  </si>
+  <si>
+    <t>Sunderland-Lincoln</t>
+  </si>
+  <si>
+    <t>75.0%</t>
+  </si>
+  <si>
+    <t>16.9%</t>
+  </si>
+  <si>
+    <t>35.3%</t>
+  </si>
+  <si>
+    <t>Bolton-Wycombe</t>
+  </si>
+  <si>
+    <t>25.3%</t>
+  </si>
+  <si>
+    <t>Mansfield-Swindon</t>
+  </si>
+  <si>
+    <t>Mansfield</t>
+  </si>
+  <si>
+    <t>23.2%</t>
+  </si>
+  <si>
+    <t>48.0%</t>
+  </si>
+  <si>
+    <t>60.4%</t>
+  </si>
+  <si>
+    <t>Forest Green-Colchester</t>
+  </si>
+  <si>
+    <t>65.1%</t>
+  </si>
+  <si>
+    <t>11.4%</t>
+  </si>
+  <si>
+    <t>66.3%</t>
+  </si>
+  <si>
+    <t>Salford-Tranmere</t>
+  </si>
+  <si>
+    <t>Salford</t>
+  </si>
+  <si>
+    <t>7.0%</t>
+  </si>
+  <si>
+    <t>93.0%</t>
+  </si>
+  <si>
+    <t>87.1%</t>
+  </si>
+  <si>
+    <t>Boreham Wood-Wealdstone</t>
+  </si>
+  <si>
+    <t>78.7%</t>
+  </si>
+  <si>
+    <t>5.4%</t>
+  </si>
+  <si>
+    <t>48.8%</t>
+  </si>
+  <si>
+    <t>Halifax-Grimsby</t>
+  </si>
+  <si>
+    <t>55.7%</t>
+  </si>
+  <si>
+    <t>Kings Lynn-Notts County</t>
+  </si>
+  <si>
+    <t>7.2%</t>
+  </si>
+  <si>
+    <t>72.8%</t>
+  </si>
+  <si>
+    <t>Southend-Yeovil</t>
+  </si>
+  <si>
+    <t>44.7%</t>
+  </si>
+  <si>
+    <t>55.2%</t>
+  </si>
+  <si>
+    <t>Cagliari-Bologna</t>
+  </si>
+  <si>
+    <t>I1</t>
+  </si>
+  <si>
+    <t>Cagliari</t>
+  </si>
+  <si>
+    <t>Bologna</t>
+  </si>
+  <si>
+    <t>West Ham-Norwich</t>
+  </si>
+  <si>
+    <t>2.4%</t>
+  </si>
+  <si>
+    <t>66.7%</t>
+  </si>
+  <si>
+    <t>32.3%</t>
+  </si>
+  <si>
+    <t>12/01/2022</t>
+  </si>
+  <si>
+    <t>Crewe-Charlton</t>
+  </si>
+  <si>
+    <t>Apollon-OFI Crete</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>Apollon</t>
+  </si>
+  <si>
+    <t>OFI Crete</t>
+  </si>
+  <si>
+    <t>36.8%</t>
+  </si>
+  <si>
+    <t>54.4%</t>
+  </si>
+  <si>
+    <t>12.4%</t>
+  </si>
+  <si>
+    <t>87.5%</t>
+  </si>
+  <si>
+    <t>13.1%</t>
+  </si>
+  <si>
+    <t>PAOK-Panetolikos</t>
+  </si>
+  <si>
+    <t>PAOK</t>
+  </si>
+  <si>
+    <t>Panetolikos</t>
+  </si>
+  <si>
+    <t>77.3%</t>
+  </si>
+  <si>
+    <t>17.8%</t>
+  </si>
+  <si>
+    <t>Benevento-Monza</t>
+  </si>
+  <si>
+    <t>I2</t>
+  </si>
+  <si>
+    <t>Benevento</t>
+  </si>
+  <si>
+    <t>Monza</t>
+  </si>
+  <si>
+    <t>38.3%</t>
+  </si>
+  <si>
+    <t>13/01/2022</t>
+  </si>
+  <si>
+    <t>Lecce-Vicenza</t>
+  </si>
+  <si>
+    <t>Lecce</t>
+  </si>
+  <si>
+    <t>Vicenza</t>
+  </si>
+  <si>
+    <t>80.7%</t>
+  </si>
+  <si>
+    <t>72.0%</t>
+  </si>
+  <si>
+    <t>44.8%</t>
+  </si>
+  <si>
+    <t>8.9%</t>
+  </si>
+  <si>
+    <t>91.1%</t>
+  </si>
+  <si>
+    <t>15.8%</t>
+  </si>
+  <si>
+    <t>84.2%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2918,15 +3168,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3238,10 +3491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH137"/>
+  <dimension ref="A1:AH158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H120" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="Z147" sqref="Z147"/>
+    <sheetView tabSelected="1" topLeftCell="H145" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="Z167" sqref="Z167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17470,6 +17723,2190 @@
         <v>936</v>
       </c>
     </row>
+    <row r="138" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="H138" s="2">
+        <v>2.6429999999999998</v>
+      </c>
+      <c r="I138" s="2">
+        <v>3.1070000000000002</v>
+      </c>
+      <c r="J138" s="2">
+        <v>3.3359999999999999</v>
+      </c>
+      <c r="K138" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="L138" s="2">
+        <v>3.53</v>
+      </c>
+      <c r="M138" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="N138" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="O138" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="P138" s="2">
+        <v>2.76</v>
+      </c>
+      <c r="Q138" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="R138" s="2">
+        <v>1.57</v>
+      </c>
+      <c r="S138" s="2">
+        <v>6.3819999999999997</v>
+      </c>
+      <c r="T138" s="2">
+        <v>7.468</v>
+      </c>
+      <c r="U138" s="2">
+        <v>7.4790000000000001</v>
+      </c>
+      <c r="V138" s="2">
+        <v>12.771000000000001</v>
+      </c>
+      <c r="W138" s="2">
+        <v>17.513000000000002</v>
+      </c>
+      <c r="X138" s="2">
+        <v>14.97</v>
+      </c>
+      <c r="Y138" s="2">
+        <v>17.513000000000002</v>
+      </c>
+      <c r="Z138" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA138" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="AB138" s="2">
+        <v>-2</v>
+      </c>
+      <c r="AC138" s="2">
+        <v>-3</v>
+      </c>
+      <c r="AD138" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE138" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF138" s="2">
+        <v>3.8420999999999998</v>
+      </c>
+      <c r="AG138" s="2">
+        <v>3.6842000000000001</v>
+      </c>
+      <c r="AH138" s="2" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="139" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
+        <v>955</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H139" s="2">
+        <v>11.561</v>
+      </c>
+      <c r="I139" s="2">
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="J139" s="2">
+        <v>1.34</v>
+      </c>
+      <c r="K139" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="L139" s="2">
+        <v>1.32</v>
+      </c>
+      <c r="M139" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="N139" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="O139" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="P139" s="2">
+        <v>1.67</v>
+      </c>
+      <c r="Q139" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="R139" s="2">
+        <v>2.85</v>
+      </c>
+      <c r="S139" s="2">
+        <v>71.429000000000002</v>
+      </c>
+      <c r="T139" s="2">
+        <v>23.474</v>
+      </c>
+      <c r="U139" s="2">
+        <v>21.882000000000001</v>
+      </c>
+      <c r="V139" s="2">
+        <v>133.333</v>
+      </c>
+      <c r="W139" s="2">
+        <v>14.368</v>
+      </c>
+      <c r="X139" s="2">
+        <v>40.816000000000003</v>
+      </c>
+      <c r="Y139" s="2">
+        <v>13.404999999999999</v>
+      </c>
+      <c r="Z139" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA139" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB139" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AC139" s="2">
+        <v>2</v>
+      </c>
+      <c r="AD139" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE139" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AF139" s="2">
+        <v>3.7826</v>
+      </c>
+      <c r="AG139" s="2">
+        <v>3.8696000000000002</v>
+      </c>
+      <c r="AH139" s="2" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="140" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A140" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="H140" s="2">
+        <v>2.0449999999999999</v>
+      </c>
+      <c r="I140" s="2">
+        <v>4.1719999999999997</v>
+      </c>
+      <c r="J140" s="2">
+        <v>3.7189999999999999</v>
+      </c>
+      <c r="K140" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="L140" s="2">
+        <v>1.82</v>
+      </c>
+      <c r="M140" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="N140" s="2">
+        <v>2.23</v>
+      </c>
+      <c r="O140" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="P140" s="2">
+        <v>1.76</v>
+      </c>
+      <c r="Q140" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="R140" s="2">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="S140" s="2">
+        <v>10.593</v>
+      </c>
+      <c r="T140" s="2">
+        <v>15.038</v>
+      </c>
+      <c r="U140" s="2">
+        <v>8.8810000000000002</v>
+      </c>
+      <c r="V140" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="W140" s="2">
+        <v>25.189</v>
+      </c>
+      <c r="X140" s="2">
+        <v>10.481999999999999</v>
+      </c>
+      <c r="Y140" s="2">
+        <v>14.881</v>
+      </c>
+      <c r="Z140" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA140" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB140" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC140" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AD140" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE140" s="2">
+        <v>-3</v>
+      </c>
+      <c r="AF140" s="2">
+        <v>3.375</v>
+      </c>
+      <c r="AG140" s="2">
+        <v>3.9047999999999998</v>
+      </c>
+      <c r="AH140" s="2" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="141" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
+        <v>963</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="H141" s="2">
+        <v>1.333</v>
+      </c>
+      <c r="I141" s="2">
+        <v>5.931</v>
+      </c>
+      <c r="J141" s="2">
+        <v>13.569000000000001</v>
+      </c>
+      <c r="K141" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="L141" s="2">
+        <v>2.02</v>
+      </c>
+      <c r="M141" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="N141" s="2">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="O141" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="P141" s="2">
+        <v>2.84</v>
+      </c>
+      <c r="Q141" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="R141" s="2">
+        <v>1.56</v>
+      </c>
+      <c r="S141" s="2">
+        <v>6.7389999999999999</v>
+      </c>
+      <c r="T141" s="2">
+        <v>28.408999999999999</v>
+      </c>
+      <c r="U141" s="2">
+        <v>13.122999999999999</v>
+      </c>
+      <c r="V141" s="2">
+        <v>6.2190000000000003</v>
+      </c>
+      <c r="W141" s="2">
+        <v>111.111</v>
+      </c>
+      <c r="X141" s="2">
+        <v>12.092000000000001</v>
+      </c>
+      <c r="Y141" s="2">
+        <v>51.02</v>
+      </c>
+      <c r="Z141" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA141" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="AB141" s="2">
+        <v>14</v>
+      </c>
+      <c r="AC141" s="2">
+        <v>-5</v>
+      </c>
+      <c r="AD141" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE141" s="2">
+        <v>2</v>
+      </c>
+      <c r="AF141" s="2">
+        <v>3.48</v>
+      </c>
+      <c r="AG141" s="2">
+        <v>3.5651999999999999</v>
+      </c>
+      <c r="AH141" s="2" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="142" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>968</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H142" s="2">
+        <v>3.956</v>
+      </c>
+      <c r="I142" s="2">
+        <v>4.1909999999999998</v>
+      </c>
+      <c r="J142" s="2">
+        <v>1.976</v>
+      </c>
+      <c r="K142" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="L142" s="2">
+        <v>1.85</v>
+      </c>
+      <c r="M142" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="N142" s="2">
+        <v>2.19</v>
+      </c>
+      <c r="O142" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="P142" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="Q142" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="R142" s="2">
+        <v>2.27</v>
+      </c>
+      <c r="S142" s="2">
+        <v>15.266999999999999</v>
+      </c>
+      <c r="T142" s="2">
+        <v>10.141999999999999</v>
+      </c>
+      <c r="U142" s="2">
+        <v>8.8889999999999993</v>
+      </c>
+      <c r="V142" s="2">
+        <v>26.738</v>
+      </c>
+      <c r="W142" s="2">
+        <v>11.82</v>
+      </c>
+      <c r="X142" s="2">
+        <v>15.601000000000001</v>
+      </c>
+      <c r="Y142" s="2">
+        <v>10.363</v>
+      </c>
+      <c r="Z142" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA142" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB142" s="2">
+        <v>-3</v>
+      </c>
+      <c r="AC142" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD142" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AE142" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF142" s="2">
+        <v>3.5217000000000001</v>
+      </c>
+      <c r="AG142" s="2">
+        <v>3.36</v>
+      </c>
+      <c r="AH142" s="2" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="143" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>970</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>971</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="H143" s="2">
+        <v>3.5209999999999999</v>
+      </c>
+      <c r="I143" s="2">
+        <v>4.3010000000000002</v>
+      </c>
+      <c r="J143" s="2">
+        <v>2.0819999999999999</v>
+      </c>
+      <c r="K143" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="L143" s="2">
+        <v>1.69</v>
+      </c>
+      <c r="M143" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="N143" s="2">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="O143" s="2" t="s">
+        <v>973</v>
+      </c>
+      <c r="P143" s="2">
+        <v>1.65</v>
+      </c>
+      <c r="Q143" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="R143" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="S143" s="2">
+        <v>16.667000000000002</v>
+      </c>
+      <c r="T143" s="2">
+        <v>12.33</v>
+      </c>
+      <c r="U143" s="2">
+        <v>9.3979999999999997</v>
+      </c>
+      <c r="V143" s="2">
+        <v>25.381</v>
+      </c>
+      <c r="W143" s="2">
+        <v>13.928000000000001</v>
+      </c>
+      <c r="X143" s="2">
+        <v>14.327</v>
+      </c>
+      <c r="Y143" s="2">
+        <v>10.603999999999999</v>
+      </c>
+      <c r="Z143" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA143" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB143" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC143" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD143" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE143" s="2">
+        <v>3</v>
+      </c>
+      <c r="AF143" s="2">
+        <v>3.6364000000000001</v>
+      </c>
+      <c r="AG143" s="2">
+        <v>3.7726999999999999</v>
+      </c>
+      <c r="AH143" s="2" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="144" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
+        <v>974</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>975</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="H144" s="2">
+        <v>1.5369999999999999</v>
+      </c>
+      <c r="I144" s="2">
+        <v>4.2880000000000003</v>
+      </c>
+      <c r="J144" s="2">
+        <v>8.7409999999999997</v>
+      </c>
+      <c r="K144" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="L144" s="2">
+        <v>2.66</v>
+      </c>
+      <c r="M144" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="N144" s="2">
+        <v>1.61</v>
+      </c>
+      <c r="O144" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="P144" s="2">
+        <v>2.99</v>
+      </c>
+      <c r="Q144" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="R144" s="2">
+        <v>1.51</v>
+      </c>
+      <c r="S144" s="2">
+        <v>5.42</v>
+      </c>
+      <c r="T144" s="2">
+        <v>16.949000000000002</v>
+      </c>
+      <c r="U144" s="2">
+        <v>10.163</v>
+      </c>
+      <c r="V144" s="2">
+        <v>6.4980000000000002</v>
+      </c>
+      <c r="W144" s="2">
+        <v>63.694000000000003</v>
+      </c>
+      <c r="X144" s="2">
+        <v>12.18</v>
+      </c>
+      <c r="Y144" s="2">
+        <v>38.023000000000003</v>
+      </c>
+      <c r="Z144" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA144" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB144" s="2">
+        <v>9</v>
+      </c>
+      <c r="AC144" s="2">
+        <v>-4</v>
+      </c>
+      <c r="AD144" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE144" s="2">
+        <v>-2</v>
+      </c>
+      <c r="AF144" s="2">
+        <v>3.5909</v>
+      </c>
+      <c r="AG144" s="2">
+        <v>3.3332999999999999</v>
+      </c>
+      <c r="AH144" s="2" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="145" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
+        <v>978</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>979</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="H145" s="2">
+        <v>2.778</v>
+      </c>
+      <c r="I145" s="2">
+        <v>2.1160000000000001</v>
+      </c>
+      <c r="J145" s="2">
+        <v>5.9809999999999999</v>
+      </c>
+      <c r="K145" s="2" t="s">
+        <v>980</v>
+      </c>
+      <c r="L145" s="2">
+        <v>14.33</v>
+      </c>
+      <c r="M145" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="N145" s="2">
+        <v>1.08</v>
+      </c>
+      <c r="O145" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="P145" s="2">
+        <v>7.78</v>
+      </c>
+      <c r="Q145" s="2" t="s">
+        <v>982</v>
+      </c>
+      <c r="R145" s="2">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="S145" s="2">
+        <v>4.1909999999999998</v>
+      </c>
+      <c r="T145" s="2">
+        <v>7.7759999999999998</v>
+      </c>
+      <c r="U145" s="2">
+        <v>12.69</v>
+      </c>
+      <c r="V145" s="2">
+        <v>13.68</v>
+      </c>
+      <c r="W145" s="2">
+        <v>47.17</v>
+      </c>
+      <c r="X145" s="2">
+        <v>41.494</v>
+      </c>
+      <c r="Y145" s="2">
+        <v>76.923000000000002</v>
+      </c>
+      <c r="Z145" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="AA145" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB145" s="2">
+        <v>6</v>
+      </c>
+      <c r="AC145" s="2">
+        <v>10</v>
+      </c>
+      <c r="AD145" s="2">
+        <v>2</v>
+      </c>
+      <c r="AE145" s="2">
+        <v>4</v>
+      </c>
+      <c r="AF145" s="2">
+        <v>3.8635999999999999</v>
+      </c>
+      <c r="AG145" s="2">
+        <v>3.3913000000000002</v>
+      </c>
+      <c r="AH145" s="2" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="146" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H146" s="2">
+        <v>4.4210000000000003</v>
+      </c>
+      <c r="I146" s="2">
+        <v>4.3840000000000003</v>
+      </c>
+      <c r="J146" s="2">
+        <v>1.843</v>
+      </c>
+      <c r="K146" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="L146" s="2">
+        <v>1.78</v>
+      </c>
+      <c r="M146" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="N146" s="2">
+        <v>2.29</v>
+      </c>
+      <c r="O146" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="P146" s="2">
+        <v>1.79</v>
+      </c>
+      <c r="Q146" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="R146" s="2">
+        <v>2.29</v>
+      </c>
+      <c r="S146" s="2">
+        <v>17.152999999999999</v>
+      </c>
+      <c r="T146" s="2">
+        <v>10.308999999999999</v>
+      </c>
+      <c r="U146" s="2">
+        <v>9.3369999999999997</v>
+      </c>
+      <c r="V146" s="2">
+        <v>31.056000000000001</v>
+      </c>
+      <c r="W146" s="2">
+        <v>11.223000000000001</v>
+      </c>
+      <c r="X146" s="2">
+        <v>16.920000000000002</v>
+      </c>
+      <c r="Y146" s="2">
+        <v>10.163</v>
+      </c>
+      <c r="Z146" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA146" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB146" s="2">
+        <v>-8</v>
+      </c>
+      <c r="AC146" s="2">
+        <v>13</v>
+      </c>
+      <c r="AD146" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE146" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF146" s="2">
+        <v>3.3182</v>
+      </c>
+      <c r="AG146" s="2">
+        <v>3.05</v>
+      </c>
+      <c r="AH146" s="2" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="147" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>985</v>
+      </c>
+      <c r="H147" s="2">
+        <v>1.2709999999999999</v>
+      </c>
+      <c r="I147" s="2">
+        <v>6.601</v>
+      </c>
+      <c r="J147" s="2">
+        <v>18.657</v>
+      </c>
+      <c r="K147" s="2" t="s">
+        <v>986</v>
+      </c>
+      <c r="L147" s="2">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="M147" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="N147" s="2">
+        <v>1.99</v>
+      </c>
+      <c r="O147" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="P147" s="2">
+        <v>3.34</v>
+      </c>
+      <c r="Q147" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="R147" s="2">
+        <v>1.45</v>
+      </c>
+      <c r="S147" s="2">
+        <v>6.3650000000000002</v>
+      </c>
+      <c r="T147" s="2">
+        <v>34.722000000000001</v>
+      </c>
+      <c r="U147" s="2">
+        <v>15.432</v>
+      </c>
+      <c r="V147" s="2">
+        <v>5.6630000000000003</v>
+      </c>
+      <c r="W147" s="2">
+        <v>166.667</v>
+      </c>
+      <c r="X147" s="2">
+        <v>13.717000000000001</v>
+      </c>
+      <c r="Y147" s="2">
+        <v>74.626999999999995</v>
+      </c>
+      <c r="Z147" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="AA147" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB147" s="2">
+        <v>7</v>
+      </c>
+      <c r="AC147" s="2">
+        <v>-3</v>
+      </c>
+      <c r="AD147" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE147" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AF147" s="2">
+        <v>2.6316000000000002</v>
+      </c>
+      <c r="AG147" s="2">
+        <v>3.5789</v>
+      </c>
+      <c r="AH147" s="2" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="148" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
+        <v>987</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="H148" s="2">
+        <v>1.4770000000000001</v>
+      </c>
+      <c r="I148" s="2">
+        <v>5.0609999999999999</v>
+      </c>
+      <c r="J148" s="2">
+        <v>8.3130000000000006</v>
+      </c>
+      <c r="K148" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="L148" s="2">
+        <v>1.96</v>
+      </c>
+      <c r="M148" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N148" s="2">
+        <v>2.06</v>
+      </c>
+      <c r="O148" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="P148" s="2">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="Q148" s="2" t="s">
+        <v>988</v>
+      </c>
+      <c r="R148" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="S148" s="2">
+        <v>7.5990000000000002</v>
+      </c>
+      <c r="T148" s="2">
+        <v>21.692</v>
+      </c>
+      <c r="U148" s="2">
+        <v>10.718</v>
+      </c>
+      <c r="V148" s="2">
+        <v>7.5129999999999999</v>
+      </c>
+      <c r="W148" s="2">
+        <v>60.975999999999999</v>
+      </c>
+      <c r="X148" s="2">
+        <v>10.593</v>
+      </c>
+      <c r="Y148" s="2">
+        <v>30.210999999999999</v>
+      </c>
+      <c r="Z148" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA148" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB148" s="2">
+        <v>8</v>
+      </c>
+      <c r="AC148" s="2">
+        <v>-4</v>
+      </c>
+      <c r="AD148" s="2">
+        <v>4</v>
+      </c>
+      <c r="AE148" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF148" s="2">
+        <v>3.4091</v>
+      </c>
+      <c r="AG148" s="2">
+        <v>3.05</v>
+      </c>
+      <c r="AH148" s="2" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="149" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
+        <v>989</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="H149" s="2">
+        <v>13.907999999999999</v>
+      </c>
+      <c r="I149" s="2">
+        <v>5.0709999999999997</v>
+      </c>
+      <c r="J149" s="2">
+        <v>1.3740000000000001</v>
+      </c>
+      <c r="K149" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="L149" s="2">
+        <v>2.54</v>
+      </c>
+      <c r="M149" s="2" t="s">
+        <v>973</v>
+      </c>
+      <c r="N149" s="2">
+        <v>1.66</v>
+      </c>
+      <c r="O149" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="P149" s="2">
+        <v>3.57</v>
+      </c>
+      <c r="Q149" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="R149" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="S149" s="2">
+        <v>23.922999999999998</v>
+      </c>
+      <c r="T149" s="2">
+        <v>5.1920000000000002</v>
+      </c>
+      <c r="U149" s="2">
+        <v>12.821</v>
+      </c>
+      <c r="V149" s="2">
+        <v>117.64700000000001</v>
+      </c>
+      <c r="W149" s="2">
+        <v>5.5650000000000004</v>
+      </c>
+      <c r="X149" s="2">
+        <v>63.290999999999997</v>
+      </c>
+      <c r="Y149" s="2">
+        <v>13.755000000000001</v>
+      </c>
+      <c r="Z149" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="AA149" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB149" s="2">
+        <v>-9</v>
+      </c>
+      <c r="AC149" s="2">
+        <v>6</v>
+      </c>
+      <c r="AD149" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AE149" s="2">
+        <v>2</v>
+      </c>
+      <c r="AF149" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="AG149" s="2">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="AH149" s="2" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="150" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
+        <v>992</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="H150" s="2">
+        <v>5.1550000000000002</v>
+      </c>
+      <c r="I150" s="2">
+        <v>4.0449999999999999</v>
+      </c>
+      <c r="J150" s="2">
+        <v>1.794</v>
+      </c>
+      <c r="K150" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="L150" s="2">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="M150" s="2" t="s">
+        <v>994</v>
+      </c>
+      <c r="N150" s="2">
+        <v>1.81</v>
+      </c>
+      <c r="O150" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="P150" s="2">
+        <v>2.19</v>
+      </c>
+      <c r="Q150" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="R150" s="2">
+        <v>1.85</v>
+      </c>
+      <c r="S150" s="2">
+        <v>14.006</v>
+      </c>
+      <c r="T150" s="2">
+        <v>7.2619999999999996</v>
+      </c>
+      <c r="U150" s="2">
+        <v>8.6129999999999995</v>
+      </c>
+      <c r="V150" s="2">
+        <v>33.222999999999999</v>
+      </c>
+      <c r="W150" s="2">
+        <v>8.9369999999999994</v>
+      </c>
+      <c r="X150" s="2">
+        <v>20.45</v>
+      </c>
+      <c r="Y150" s="2">
+        <v>10.603999999999999</v>
+      </c>
+      <c r="Z150" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA150" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB150" s="2">
+        <v>-2</v>
+      </c>
+      <c r="AC150" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD150" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE150" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AF150" s="2">
+        <v>3.95</v>
+      </c>
+      <c r="AG150" s="2">
+        <v>3.85</v>
+      </c>
+      <c r="AH150" s="2" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="151" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
+        <v>995</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>996</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>997</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H151" s="2">
+        <v>2.9910000000000001</v>
+      </c>
+      <c r="I151" s="2">
+        <v>4.165</v>
+      </c>
+      <c r="J151" s="2">
+        <v>2.3610000000000002</v>
+      </c>
+      <c r="K151" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="L151" s="2">
+        <v>1.72</v>
+      </c>
+      <c r="M151" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="N151" s="2">
+        <v>2.41</v>
+      </c>
+      <c r="O151" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="P151" s="2">
+        <v>1.65</v>
+      </c>
+      <c r="Q151" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="R151" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="S151" s="2">
+        <v>14.683999999999999</v>
+      </c>
+      <c r="T151" s="2">
+        <v>12.821</v>
+      </c>
+      <c r="U151" s="2">
+        <v>9.0660000000000007</v>
+      </c>
+      <c r="V151" s="2">
+        <v>20.79</v>
+      </c>
+      <c r="W151" s="2">
+        <v>15.823</v>
+      </c>
+      <c r="X151" s="2">
+        <v>12.837</v>
+      </c>
+      <c r="Y151" s="2">
+        <v>11.198</v>
+      </c>
+      <c r="Z151" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA151" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB151" s="2">
+        <v>-9</v>
+      </c>
+      <c r="AC151" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD151" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE151" s="2">
+        <v>3</v>
+      </c>
+      <c r="AF151" s="2">
+        <v>4.45</v>
+      </c>
+      <c r="AG151" s="2">
+        <v>5.2104999999999997</v>
+      </c>
+      <c r="AH151" s="2" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="152" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
+        <v>999</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>1000</v>
+      </c>
+      <c r="H152" s="2">
+        <v>1.1739999999999999</v>
+      </c>
+      <c r="I152" s="2">
+        <v>13.569000000000001</v>
+      </c>
+      <c r="J152" s="2">
+        <v>41.322000000000003</v>
+      </c>
+      <c r="K152" s="2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="L152" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="M152" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="N152" s="2">
+        <v>3.54</v>
+      </c>
+      <c r="O152" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="P152" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="Q152" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="R152" s="2">
+        <v>1.59</v>
+      </c>
+      <c r="S152" s="2">
+        <v>12.547000000000001</v>
+      </c>
+      <c r="T152" s="2">
+        <v>94.34</v>
+      </c>
+      <c r="U152" s="2">
+        <v>28.736000000000001</v>
+      </c>
+      <c r="V152" s="2">
+        <v>7.6509999999999998</v>
+      </c>
+      <c r="W152" s="2">
+        <v>434.78300000000002</v>
+      </c>
+      <c r="X152" s="2">
+        <v>17.544</v>
+      </c>
+      <c r="Y152" s="2">
+        <v>131.57900000000001</v>
+      </c>
+      <c r="Z152" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA152" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="AB152" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC152" s="2">
+        <v>-14</v>
+      </c>
+      <c r="AD152" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE152" s="2">
+        <v>-3</v>
+      </c>
+      <c r="AF152" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="AG152" s="2">
+        <v>3.5263</v>
+      </c>
+      <c r="AH152" s="2" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="153" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A153" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="H153" s="2">
+        <v>3.871</v>
+      </c>
+      <c r="I153" s="2">
+        <v>3.5609999999999999</v>
+      </c>
+      <c r="J153" s="2">
+        <v>2.1720000000000002</v>
+      </c>
+      <c r="K153" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="L153" s="2">
+        <v>2.59</v>
+      </c>
+      <c r="M153" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="N153" s="2">
+        <v>1.63</v>
+      </c>
+      <c r="O153" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="P153" s="2">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="Q153" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="R153" s="2">
+        <v>1.78</v>
+      </c>
+      <c r="S153" s="2">
+        <v>10.234999999999999</v>
+      </c>
+      <c r="T153" s="2">
+        <v>7.0720000000000001</v>
+      </c>
+      <c r="U153" s="2">
+        <v>7.74</v>
+      </c>
+      <c r="V153" s="2">
+        <v>22.422000000000001</v>
+      </c>
+      <c r="W153" s="2">
+        <v>10.707000000000001</v>
+      </c>
+      <c r="X153" s="2">
+        <v>16.949000000000002</v>
+      </c>
+      <c r="Y153" s="2">
+        <v>11.71</v>
+      </c>
+      <c r="Z153" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA153" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB153" s="2">
+        <v>-4</v>
+      </c>
+      <c r="AC153" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD153" s="2">
+        <v>-3</v>
+      </c>
+      <c r="AE153" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AF153" s="2">
+        <v>3.5832999999999999</v>
+      </c>
+      <c r="AG153" s="2">
+        <v>4.1666999999999996</v>
+      </c>
+      <c r="AH153" s="2" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="154" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>1010</v>
+      </c>
+      <c r="H154" s="2">
+        <v>11.429</v>
+      </c>
+      <c r="I154" s="2">
+        <v>2.7170000000000001</v>
+      </c>
+      <c r="J154" s="2">
+        <v>1.8380000000000001</v>
+      </c>
+      <c r="K154" s="2" t="s">
+        <v>1011</v>
+      </c>
+      <c r="L154" s="2">
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="M154" s="2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="N154" s="2">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="O154" s="2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="P154" s="2">
+        <v>7.6</v>
+      </c>
+      <c r="Q154" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="R154" s="2">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="S154" s="2">
+        <v>14.347</v>
+      </c>
+      <c r="T154" s="2">
+        <v>3.4420000000000002</v>
+      </c>
+      <c r="U154" s="2">
+        <v>14.577</v>
+      </c>
+      <c r="V154" s="2">
+        <v>121.95099999999999</v>
+      </c>
+      <c r="W154" s="2">
+        <v>7.0030000000000001</v>
+      </c>
+      <c r="X154" s="2">
+        <v>123.45699999999999</v>
+      </c>
+      <c r="Y154" s="2">
+        <v>29.673999999999999</v>
+      </c>
+      <c r="Z154" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="AA154" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB154" s="2">
+        <v>-7</v>
+      </c>
+      <c r="AC154" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AD154" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE154" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF154" s="2">
+        <v>6</v>
+      </c>
+      <c r="AG154" s="2">
+        <v>4.875</v>
+      </c>
+      <c r="AH154" s="2" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="155" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="H155" s="2">
+        <v>1.385</v>
+      </c>
+      <c r="I155" s="2">
+        <v>7.9109999999999996</v>
+      </c>
+      <c r="J155" s="2">
+        <v>9.6620000000000008</v>
+      </c>
+      <c r="K155" s="2" t="s">
+        <v>1017</v>
+      </c>
+      <c r="L155" s="2">
+        <v>1.29</v>
+      </c>
+      <c r="M155" s="2" t="s">
+        <v>1018</v>
+      </c>
+      <c r="N155" s="2">
+        <v>5.6</v>
+      </c>
+      <c r="O155" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="P155" s="2">
+        <v>1.56</v>
+      </c>
+      <c r="Q155" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="R155" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="S155" s="2">
+        <v>26.524999999999999</v>
+      </c>
+      <c r="T155" s="2">
+        <v>71.429000000000002</v>
+      </c>
+      <c r="U155" s="2">
+        <v>22.026</v>
+      </c>
+      <c r="V155" s="2">
+        <v>16.286999999999999</v>
+      </c>
+      <c r="W155" s="2">
+        <v>119.048</v>
+      </c>
+      <c r="X155" s="2">
+        <v>13.532</v>
+      </c>
+      <c r="Y155" s="2">
+        <v>36.496000000000002</v>
+      </c>
+      <c r="Z155" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA155" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB155" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC155" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD155" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE155" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF155" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="AG155" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="AH155" s="2" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="156" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="H156" s="2">
+        <v>1.792</v>
+      </c>
+      <c r="I156" s="2">
+        <v>3.827</v>
+      </c>
+      <c r="J156" s="2">
+        <v>5.577</v>
+      </c>
+      <c r="K156" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L156" s="2">
+        <v>2.61</v>
+      </c>
+      <c r="M156" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="N156" s="2">
+        <v>1.62</v>
+      </c>
+      <c r="O156" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="P156" s="2">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="Q156" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="R156" s="2">
+        <v>1.67</v>
+      </c>
+      <c r="S156" s="2">
+        <v>6.1580000000000004</v>
+      </c>
+      <c r="T156" s="2">
+        <v>12.804</v>
+      </c>
+      <c r="U156" s="2">
+        <v>8.5250000000000004</v>
+      </c>
+      <c r="V156" s="2">
+        <v>8.1969999999999992</v>
+      </c>
+      <c r="W156" s="2">
+        <v>35.460999999999999</v>
+      </c>
+      <c r="X156" s="2">
+        <v>11.351000000000001</v>
+      </c>
+      <c r="Y156" s="2">
+        <v>23.585000000000001</v>
+      </c>
+      <c r="Z156" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA156" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB156" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC156" s="2">
+        <v>7</v>
+      </c>
+      <c r="AD156" s="2">
+        <v>2</v>
+      </c>
+      <c r="AE156" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF156" s="2">
+        <v>4.7647000000000004</v>
+      </c>
+      <c r="AG156" s="2">
+        <v>4.8235000000000001</v>
+      </c>
+      <c r="AH156" s="2" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="157" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H157" s="2">
+        <v>1.2390000000000001</v>
+      </c>
+      <c r="I157" s="2">
+        <v>11.038</v>
+      </c>
+      <c r="J157" s="2">
+        <v>21.645</v>
+      </c>
+      <c r="K157" s="2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="L157" s="2">
+        <v>1.39</v>
+      </c>
+      <c r="M157" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="N157" s="2">
+        <v>4.47</v>
+      </c>
+      <c r="O157" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="P157" s="2">
+        <v>2.12</v>
+      </c>
+      <c r="Q157" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="R157" s="2">
+        <v>2.12</v>
+      </c>
+      <c r="S157" s="2">
+        <v>17.920999999999999</v>
+      </c>
+      <c r="T157" s="2">
+        <v>82.644999999999996</v>
+      </c>
+      <c r="U157" s="2">
+        <v>24.51</v>
+      </c>
+      <c r="V157" s="2">
+        <v>10.638</v>
+      </c>
+      <c r="W157" s="2">
+        <v>227.273</v>
+      </c>
+      <c r="X157" s="2">
+        <v>14.535</v>
+      </c>
+      <c r="Y157" s="2">
+        <v>67.114000000000004</v>
+      </c>
+      <c r="Z157" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA157" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB157" s="2">
+        <v>7</v>
+      </c>
+      <c r="AC157" s="2">
+        <v>-4</v>
+      </c>
+      <c r="AD157" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AE157" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AF157" s="2">
+        <v>4.3529</v>
+      </c>
+      <c r="AG157" s="2">
+        <v>6</v>
+      </c>
+      <c r="AH157" s="2" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="158" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H158" s="2">
+        <v>2.83</v>
+      </c>
+      <c r="I158" s="2">
+        <v>2.23</v>
+      </c>
+      <c r="J158" s="2">
+        <v>5.0449999999999999</v>
+      </c>
+      <c r="K158" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="L158" s="2">
+        <v>11.21</v>
+      </c>
+      <c r="M158" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="N158" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O158" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="P158" s="2">
+        <v>6.33</v>
+      </c>
+      <c r="Q158" s="2" t="s">
+        <v>1034</v>
+      </c>
+      <c r="R158" s="2">
+        <v>1.19</v>
+      </c>
+      <c r="S158" s="2">
+        <v>4.4459999999999997</v>
+      </c>
+      <c r="T158" s="2">
+        <v>7.0129999999999999</v>
+      </c>
+      <c r="U158" s="2">
+        <v>10.941000000000001</v>
+      </c>
+      <c r="V158" s="2">
+        <v>13.87</v>
+      </c>
+      <c r="W158" s="2">
+        <v>34.482999999999997</v>
+      </c>
+      <c r="X158" s="2">
+        <v>34.130000000000003</v>
+      </c>
+      <c r="Y158" s="2">
+        <v>53.762999999999998</v>
+      </c>
+      <c r="Z158" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="AA158" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="AB158" s="2">
+        <v>-7</v>
+      </c>
+      <c r="AC158" s="2">
+        <v>-12</v>
+      </c>
+      <c r="AD158" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE158" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF158" s="2">
+        <v>6.1875</v>
+      </c>
+      <c r="AG158" s="2">
+        <v>6.125</v>
+      </c>
+      <c r="AH158" s="2" t="s">
+        <v>1024</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
